--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epgn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Epgn-Egfr.xlsx
@@ -540,10 +540,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1638783333333333</v>
+        <v>0.135806</v>
       </c>
       <c r="H2">
-        <v>0.491635</v>
+        <v>0.407418</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>0.25796580085</v>
+        <v>0.2311322603113333</v>
       </c>
       <c r="R2">
-        <v>2.32169220765</v>
+        <v>2.080190342802</v>
       </c>
       <c r="S2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="T2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1638783333333333</v>
+        <v>0.135806</v>
       </c>
       <c r="H3">
-        <v>0.491635</v>
+        <v>0.407418</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>10.243042661115</v>
+        <v>8.488411026282002</v>
       </c>
       <c r="R3">
-        <v>92.18738395003501</v>
+        <v>76.39569923653801</v>
       </c>
       <c r="S3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="T3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1638783333333333</v>
+        <v>0.135806</v>
       </c>
       <c r="H4">
-        <v>0.491635</v>
+        <v>0.407418</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.02997383880166667</v>
+        <v>0.05892201341400001</v>
       </c>
       <c r="R4">
-        <v>0.269764549215</v>
+        <v>0.530298120726</v>
       </c>
       <c r="S4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="T4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1638783333333333</v>
+        <v>0.135806</v>
       </c>
       <c r="H5">
-        <v>0.491635</v>
+        <v>0.407418</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>2.193560545914445</v>
+        <v>2.169145581504</v>
       </c>
       <c r="R5">
-        <v>19.74204491323</v>
+        <v>19.522310233536</v>
       </c>
       <c r="S5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="T5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1638783333333333</v>
+        <v>0.135806</v>
       </c>
       <c r="H6">
-        <v>0.491635</v>
+        <v>0.407418</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.01537304406722222</v>
+        <v>0.02929584397666667</v>
       </c>
       <c r="R6">
-        <v>0.138357396605</v>
+        <v>0.26366259579</v>
       </c>
       <c r="S6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="T6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
     </row>
   </sheetData>
